--- a/Getiryemek_selenium/GetirYemek.xlsx
+++ b/Getiryemek_selenium/GetirYemek.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
-    <sheet name="Oses Çiğ K_Menu_and_Comment" sheetId="2" r:id="rId2"/>
+    <sheet name="Tarihi Okt_Menu_and_Comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="154">
   <si>
     <t>Name</t>
   </si>
@@ -23,54 +23,57 @@
     <t>Link</t>
   </si>
   <si>
+    <t>MinPrice</t>
+  </si>
+  <si>
     <t>Times</t>
   </si>
   <si>
-    <t>MinPrice</t>
-  </si>
-  <si>
     <t>Stars_Comment</t>
   </si>
   <si>
+    <t>Tarihi Oktay Kurabiye Fırını (Türkali Mah.)</t>
+  </si>
+  <si>
+    <t>Opera Pastanesi (Etiler Mah.)</t>
+  </si>
+  <si>
+    <t>Hanımeli Kahvaltı &amp; Pişi (Fulya Mah.)</t>
+  </si>
+  <si>
+    <t>Bond Coffee Co. (Mecidiye Mah.)</t>
+  </si>
+  <si>
+    <t>Annem Zeytinyağlı Ev Yemekleri (Türkali Mah.)</t>
+  </si>
+  <si>
+    <t>Cokolada (Katip Mustafa Çelebi Mah.)</t>
+  </si>
+  <si>
+    <t>Mr. Hamza Hamburger &amp; Pizza (Esentepe Mah.)</t>
+  </si>
+  <si>
+    <t>Fish &amp; Meat House (Cihangir Mah.)</t>
+  </si>
+  <si>
+    <t>İl Capriccio Pizza (Türkali Mah.)</t>
+  </si>
+  <si>
+    <t>Şehrazat Kebap (19 Mayıs Mah.)</t>
+  </si>
+  <si>
+    <t>Cokolada (Türkali Mah.)</t>
+  </si>
+  <si>
     <t>Oses Çiğ Köfte (Dikilitaş Mah.)</t>
   </si>
   <si>
-    <t>Annem Zeytinyağlı Ev Yemekleri (Türkali Mah.)</t>
-  </si>
-  <si>
-    <t>Cokolada (Katip Mustafa Çelebi Mah.)</t>
-  </si>
-  <si>
-    <t>Tarihi Oktay Kurabiye Fırını (Türkali Mah.)</t>
-  </si>
-  <si>
-    <t>Mr. Hamza Hamburger &amp; Pizza (Esentepe Mah.)</t>
-  </si>
-  <si>
-    <t>İl Capriccio Pizza (Türkali Mah.)</t>
-  </si>
-  <si>
-    <t>Şehrazat Kebap (19 Mayıs Mah.)</t>
-  </si>
-  <si>
-    <t>Fish &amp; Meat House (Cihangir Mah.)</t>
-  </si>
-  <si>
-    <t>Cokolada (Türkali Mah.)</t>
-  </si>
-  <si>
-    <t>Opera Pastanesi (Etiler Mah.)</t>
-  </si>
-  <si>
     <t>Tatlı Krizi (Gülbahar Mah.)</t>
   </si>
   <si>
     <t>Harbiyee Burger (Merkez Mah.)</t>
   </si>
   <si>
-    <t>Hanımeli Kahvaltı &amp; Pişi (Fulya Mah.)</t>
-  </si>
-  <si>
     <t>Dönerist (Gayrettepe Mah.)</t>
   </si>
   <si>
@@ -83,54 +86,54 @@
     <t>Frango Döner &amp; Sauce (Mecidiyeköy Mah.)</t>
   </si>
   <si>
-    <t>Bond Coffee Co. (Mecidiye Mah.)</t>
+    <t>By Kokorich (Cihannüma Mah.)</t>
   </si>
   <si>
     <t>Retro Burger (Gayrettepe Mah.)</t>
   </si>
   <si>
-    <t>By Kokorich (Cihannüma Mah.)</t>
+    <t>https://getir.com/yemek/restoran/tarihi-oktay-kurabiye-firini-besiktas-istanbul/</t>
+  </si>
+  <si>
+    <t>https://getir.com/yemek/restoran/opera-pastanesi-etiler-mah-besiktas-istanbul/</t>
+  </si>
+  <si>
+    <t>https://getir.com/yemek/restoran/hanimeli-kahvalti-pisi-fulya-mah-sisli-istanbul/</t>
+  </si>
+  <si>
+    <t>https://getir.com/yemek/restoran/bond-coffee-co-mecidiye-mah-besiktas-istanbul/</t>
+  </si>
+  <si>
+    <t>https://getir.com/yemek/restoran/annem-zeytinyagli-ev-yemekleri-turkali-mah-besiktas-istanbul/</t>
+  </si>
+  <si>
+    <t>https://getir.com/yemek/restoran/cokolada-katip-mustafa-celebi-mah-beyoglu-istanbul/</t>
+  </si>
+  <si>
+    <t>https://getir.com/yemek/restoran/mr-hamza-hamburger-pizza-esentepe-mah-sisli-istanbul/</t>
+  </si>
+  <si>
+    <t>https://getir.com/yemek/restoran/fish-meat-house-cihangir-mah-beyoglu-istanbul/</t>
+  </si>
+  <si>
+    <t>https://getir.com/yemek/restoran/il-capriccio-pizza-turkali-mah-besiktas-istanbul/</t>
+  </si>
+  <si>
+    <t>https://getir.com/yemek/restoran/sehrazat-kebap-sisli-istanbul/</t>
+  </si>
+  <si>
+    <t>https://getir.com/yemek/restoran/cokolada-turkali-mah-besiktas-istanbul/</t>
   </si>
   <si>
     <t>https://getir.com/yemek/restoran/oses-cig-kofte-dikilitas-mah-besiktas-istanbul/</t>
   </si>
   <si>
-    <t>https://getir.com/yemek/restoran/annem-zeytinyagli-ev-yemekleri-turkali-mah-besiktas-istanbul/</t>
-  </si>
-  <si>
-    <t>https://getir.com/yemek/restoran/cokolada-katip-mustafa-celebi-mah-beyoglu-istanbul/</t>
-  </si>
-  <si>
-    <t>https://getir.com/yemek/restoran/tarihi-oktay-kurabiye-firini-besiktas-istanbul/</t>
-  </si>
-  <si>
-    <t>https://getir.com/yemek/restoran/mr-hamza-hamburger-pizza-esentepe-mah-sisli-istanbul/</t>
-  </si>
-  <si>
-    <t>https://getir.com/yemek/restoran/il-capriccio-pizza-turkali-mah-besiktas-istanbul/</t>
-  </si>
-  <si>
-    <t>https://getir.com/yemek/restoran/sehrazat-kebap-sisli-istanbul/</t>
-  </si>
-  <si>
-    <t>https://getir.com/yemek/restoran/fish-meat-house-cihangir-mah-beyoglu-istanbul/</t>
-  </si>
-  <si>
-    <t>https://getir.com/yemek/restoran/cokolada-turkali-mah-besiktas-istanbul/</t>
-  </si>
-  <si>
-    <t>https://getir.com/yemek/restoran/opera-pastanesi-etiler-mah-besiktas-istanbul/</t>
-  </si>
-  <si>
     <t>https://getir.com/yemek/restoran/tatli-krizi-gulbahar-mah-sisli-istanbul/</t>
   </si>
   <si>
     <t>https://getir.com/yemek/restoran/harbiyee-burger-merkez-mah-sisli-istanbul/</t>
   </si>
   <si>
-    <t>https://getir.com/yemek/restoran/hanimeli-kahvalti-pisi-fulya-mah-sisli-istanbul/</t>
-  </si>
-  <si>
     <t>https://getir.com/yemek/restoran/donerist-gayrettepe-mah-besiktas-istanbul/</t>
   </si>
   <si>
@@ -143,28 +146,49 @@
     <t>https://getir.com/yemek/restoran/frango-doner-sauce-mecidiyekoy-mah-sisli-istanbul/</t>
   </si>
   <si>
-    <t>https://getir.com/yemek/restoran/bond-coffee-co-mecidiye-mah-besiktas-istanbul/</t>
+    <t>https://getir.com/yemek/restoran/by-kokorich-cihannuma-mah-besiktas-istanbul/</t>
   </si>
   <si>
     <t>https://getir.com/yemek/restoran/retro-burger-gayrettepe-mah-besiktas-istanbul/</t>
   </si>
   <si>
-    <t>https://getir.com/yemek/restoran/by-kokorich-cihannuma-mah-besiktas-istanbul/</t>
-  </si>
-  <si>
-    <t>Min. ₺75,00</t>
+    <t>Min. ₺80,00</t>
+  </si>
+  <si>
+    <t>Min. ₺120,00</t>
+  </si>
+  <si>
+    <t>Min. ₺70,00</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
     <t>25-35 dk</t>
+  </si>
+  <si>
+    <t>55-65 dk</t>
+  </si>
+  <si>
+    <t>40-50 dk</t>
+  </si>
+  <si>
+    <t>4.7
+(50+)</t>
   </si>
   <si>
     <t>4.5
 (100+)</t>
   </si>
   <si>
+    <t>4.4
+(50+)</t>
+  </si>
+  <si>
+    <t>4.0
+(20+)</t>
+  </si>
+  <si>
     <t>4.8
 (100+)</t>
   </si>
@@ -173,10 +197,6 @@
 (200+)</t>
   </si>
   <si>
-    <t>4.7
-(50+)</t>
-  </si>
-  <si>
     <t>4.6
 (500+)</t>
   </si>
@@ -190,11 +210,11 @@
   </si>
   <si>
     <t>4.5
+(50+)</t>
+  </si>
+  <si>
+    <t>4.5
 (200+)</t>
-  </si>
-  <si>
-    <t>4.5
-(50+)</t>
   </si>
   <si>
     <t>4.4
@@ -202,10 +222,6 @@
   </si>
   <si>
     <t>4.4
-(50+)</t>
-  </si>
-  <si>
-    <t>4.4
 (200+)</t>
   </si>
   <si>
@@ -221,17 +237,13 @@
 (500+)</t>
   </si>
   <si>
-    <t>4.0
-(20+)</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
     <t>3.8
 (10+)</t>
   </si>
   <si>
+    <t>3.7</t>
+  </si>
+  <si>
     <t>Restaurant_Category</t>
   </si>
   <si>
@@ -256,184 +268,193 @@
     <t>En Sevilenler</t>
   </si>
   <si>
-    <t>Çiğ Köfte (500 g) Menü</t>
-  </si>
-  <si>
-    <t>Çiğ Köfte</t>
-  </si>
-  <si>
-    <t>Yan Lezzet</t>
-  </si>
-  <si>
-    <t>İçecek</t>
-  </si>
-  <si>
-    <t>Sos</t>
-  </si>
-  <si>
-    <t>Mega Çiğ Köfte Dürüm (150 g)</t>
-  </si>
-  <si>
-    <t>Çiğ Köfte Dürüm (100 g)</t>
-  </si>
-  <si>
-    <t>Çiğ Köfte (500 g)</t>
-  </si>
-  <si>
-    <t>Doritoslu Mega Çiğ Köfte Dürüm (150 g)</t>
-  </si>
-  <si>
-    <t>Çiğ Köfte (300 g)</t>
-  </si>
-  <si>
-    <t>Çiğ Köfte (500 g) &amp; Litrelik İçecek Menü</t>
-  </si>
-  <si>
-    <t>Doritoslu Çiğ Köfte Dürüm (100 g)</t>
-  </si>
-  <si>
-    <t>Çiğ Köfte (750 g)</t>
-  </si>
-  <si>
-    <t>Çiğ Köfte (1 kg)</t>
-  </si>
-  <si>
-    <t>Çiğ Köfte (Yeşilliksiz) (750 g)</t>
-  </si>
-  <si>
-    <t>Lavaş (2 Adet)</t>
-  </si>
-  <si>
-    <t>Ekstra Limon (Adet)</t>
-  </si>
-  <si>
-    <t>Doritos Taco Baharat Çeşnili (218 g)</t>
-  </si>
-  <si>
-    <t>Su (500 ml)</t>
-  </si>
-  <si>
-    <t>Coca Cola Zero Sugar (330 ml)</t>
-  </si>
-  <si>
-    <t>Coca Cola (330 ml)</t>
-  </si>
-  <si>
-    <t>Fuse Tea (330 ml)</t>
-  </si>
-  <si>
-    <t>Sprite (200 ml)</t>
-  </si>
-  <si>
-    <t>Fanta (330 ml)</t>
-  </si>
-  <si>
-    <t>Şalgam Suyu (330 ml)</t>
-  </si>
-  <si>
-    <t>Soda (200 ml)</t>
-  </si>
-  <si>
-    <t>Coca Cola (1 L)</t>
-  </si>
-  <si>
-    <t>Şalgam Suyu (1 L)</t>
-  </si>
-  <si>
-    <t>Şalgam Suyu (300 ml)</t>
-  </si>
-  <si>
-    <t>Ekstra Stick Nar Ekşisi</t>
-  </si>
-  <si>
-    <t>Ekstra Stick Acı Sos</t>
-  </si>
-  <si>
-    <t>Nar Ekşisi (1 L)</t>
-  </si>
-  <si>
-    <t>Tercih edeceğiniz malzemeler ile</t>
-  </si>
-  <si>
-    <t>4 adet lavaş, yeşillik, 2 adet acı sos ve 2 adet nar ekşisi</t>
-  </si>
-  <si>
-    <t>2 adet lavaş, yeşillik, acı sos ve nar ekşisi</t>
-  </si>
-  <si>
-    <t>Çiğ köfte (500 g), içecek (1 l)</t>
-  </si>
-  <si>
-    <t>6 adet lavaş, yeşillik, 3 adet acı sos ve 3 adet nar ekşisi</t>
-  </si>
-  <si>
-    <t>8 adet lavaş, yeşillik, 3 adet acı sos ve 3 adet nar ekşisi</t>
-  </si>
-  <si>
-    <t>6 adet lavaş, 3 adet acı sos ve 3 adet nar ekşisi</t>
-  </si>
-  <si>
-    <t>₺35,00</t>
-  </si>
-  <si>
-    <t>₺25,00</t>
-  </si>
-  <si>
-    <t>₺85,00</t>
-  </si>
-  <si>
-    <t>₺40,00</t>
-  </si>
-  <si>
-    <t>₺65,00</t>
-  </si>
-  <si>
-    <t>₺105,00</t>
-  </si>
-  <si>
-    <t>₺30,00</t>
-  </si>
-  <si>
-    <t>₺120,00</t>
-  </si>
-  <si>
-    <t>₺150,00</t>
-  </si>
-  <si>
-    <t>₺95,00</t>
-  </si>
-  <si>
-    <t>₺4,00</t>
-  </si>
-  <si>
-    <t>₺5,00</t>
-  </si>
-  <si>
-    <t>₺18,00</t>
-  </si>
-  <si>
-    <t>₺15,00</t>
-  </si>
-  <si>
-    <t>₺8,00</t>
-  </si>
-  <si>
-    <t>₺13,00</t>
-  </si>
-  <si>
-    <t>₺2,50</t>
+    <t>Kurabiye</t>
+  </si>
+  <si>
+    <t>Poğaça &amp; Açma</t>
+  </si>
+  <si>
+    <t>Galeta Peksimet</t>
+  </si>
+  <si>
+    <t>Acıbadem (250 g)</t>
+  </si>
+  <si>
+    <t>Halka Simit (250 g)</t>
+  </si>
+  <si>
+    <t>Siyah &amp; Beyaz (Sable) Kurabiye (250 g)</t>
+  </si>
+  <si>
+    <t>Tuzlu Kurabiye (250 g)</t>
+  </si>
+  <si>
+    <t>Siyez Kurabiye (250 g)</t>
+  </si>
+  <si>
+    <t>Un Kurabiyesi (250 g)</t>
+  </si>
+  <si>
+    <t>Koko (250 g)</t>
+  </si>
+  <si>
+    <t>Landöşe Kurabiye (250 g)</t>
+  </si>
+  <si>
+    <t>Susamlı Çay Kurabiyesi (250 g)</t>
+  </si>
+  <si>
+    <t>Örgü Şeklinde Tatlı Çay Kurabiyesi (250 g)</t>
+  </si>
+  <si>
+    <t>Ay Şeklinde Çay Kurabiyesi (250 g)</t>
+  </si>
+  <si>
+    <t>Üzümlü Çay Kurabiyesi (250 g)</t>
+  </si>
+  <si>
+    <t>Kandil Simidi (250 g)</t>
+  </si>
+  <si>
+    <t>Tarçınlı Kurabiye (250 g)</t>
+  </si>
+  <si>
+    <t>Fıstıklı Kakaolu Kurabiye (250 g)</t>
+  </si>
+  <si>
+    <t>Hindistan Cevizli Kurabiye (250 g)</t>
+  </si>
+  <si>
+    <t>Çekirdekli Kurabiye (250 g)</t>
+  </si>
+  <si>
+    <t>Tahinli Çörek (Adet)</t>
+  </si>
+  <si>
+    <t>Ay Çöreği (Adet)</t>
+  </si>
+  <si>
+    <t>Biberli Kurabiye (250 g)</t>
+  </si>
+  <si>
+    <t>Kepekli Kurabiye (250 g)</t>
+  </si>
+  <si>
+    <t>Üzümlü Peksimet (250 g)</t>
+  </si>
+  <si>
+    <t>Kepekli Krik Krak (250 g)</t>
+  </si>
+  <si>
+    <t>Sade Krik Krak (250 g)</t>
+  </si>
+  <si>
+    <t>Yaprak Galeta (200 g)</t>
+  </si>
+  <si>
+    <t>Zeytinli Açma (Adet)</t>
+  </si>
+  <si>
+    <t>Sade Açma (Adet)</t>
+  </si>
+  <si>
+    <t>Mini Poğaça (250 g)</t>
+  </si>
+  <si>
+    <t>Mini Pizza (250 g)</t>
+  </si>
+  <si>
+    <t>Zeytinli Poğaça (Adet)</t>
+  </si>
+  <si>
+    <t>Peynirli Poğaça (Adet)</t>
+  </si>
+  <si>
+    <t>Kaşarlı Poğaça (Adet)</t>
+  </si>
+  <si>
+    <t>Patatesli Poğaça (Adet)</t>
+  </si>
+  <si>
+    <t>Çikolatalı Açma</t>
+  </si>
+  <si>
+    <t>Çatal</t>
+  </si>
+  <si>
+    <t>Anasonlu Galeta (250 g)</t>
+  </si>
+  <si>
+    <t>Ay Çekirdekli Galeta (250 g)</t>
+  </si>
+  <si>
+    <t>Sade Kırık Kırak (250 g)</t>
+  </si>
+  <si>
+    <t>Kepekli Kırıkkırak (250 g)</t>
+  </si>
+  <si>
+    <t>Peynirli mini poğaça, zeytinli mini poğaça ve patatesli mini poğaça</t>
+  </si>
+  <si>
+    <t>Peynirli mini pizza, zeytinli mini pizza ve sosisli mini pizza</t>
+  </si>
+  <si>
+    <t>₺67,00</t>
+  </si>
+  <si>
+    <t>₺46,00</t>
+  </si>
+  <si>
+    <t>₺52,00</t>
+  </si>
+  <si>
+    <t>₺63,00</t>
+  </si>
+  <si>
+    <t>₺48,00</t>
+  </si>
+  <si>
+    <t>₺47,00</t>
+  </si>
+  <si>
+    <t>₺37,00</t>
+  </si>
+  <si>
+    <t>₺22,00</t>
+  </si>
+  <si>
+    <t>₺34,00</t>
+  </si>
+  <si>
+    <t>₺45,00</t>
+  </si>
+  <si>
+    <t>₺11,00</t>
+  </si>
+  <si>
+    <t>₺10,50</t>
+  </si>
+  <si>
+    <t>₺12,00</t>
+  </si>
+  <si>
+    <t>₺38,50</t>
   </si>
   <si>
     <t>2 hafta önce</t>
   </si>
   <si>
-    <t>1 ay önce</t>
-  </si>
-  <si>
-    <t>2 ay önce</t>
-  </si>
-  <si>
-    <t>6 ay önce</t>
+    <t>3 ay önce</t>
+  </si>
+  <si>
+    <t>5 ay önce</t>
+  </si>
+  <si>
+    <t>7 ay önce</t>
+  </si>
+  <si>
+    <t>8 ay önce</t>
   </si>
   <si>
     <t>9 ay önce</t>
@@ -442,37 +463,37 @@
     <t>11 ay önce</t>
   </si>
   <si>
-    <t>4 4luktu tesekkurler.</t>
-  </si>
-  <si>
-    <t>tadı çok lezzetliydi ama hijyen konusunda eksikleri var</t>
-  </si>
-  <si>
-    <t>Sipariş notlarına hiç dikkat edilmemişti</t>
-  </si>
-  <si>
-    <t>Siparislerimiz oldukca hızlı teslim edildi ve cok lezzetliydi. Tesekkür eder, iyi calısmalar dilerim</t>
-  </si>
-  <si>
-    <t>Siparişlerimiz yanlış geldi.. malzemeside azdı hiç Memnun kalmadık</t>
-  </si>
-  <si>
-    <t>Ahmet kardeşimin ellerine sağlık! Harika lokum gibi çiğköfte! Bilenler bilir; lokum çiğköftenin tadını. Tebrik ediyorum..</t>
-  </si>
-  <si>
-    <t>Beşiktaş’ın en iyisi net!</t>
-  </si>
-  <si>
-    <t>Cok salcali</t>
-  </si>
-  <si>
-    <t>Çamur gibiydi, yiyemedik.</t>
-  </si>
-  <si>
-    <t>Harika</t>
-  </si>
-  <si>
-    <t>daha uygulamadan çıkmadan sipariş geldi şaşırdık</t>
+    <t>kurabiyeler tazeydi ancak küçük pizzalar bayattı</t>
+  </si>
+  <si>
+    <t>Görüyorsunuzdur 2 günde 2 kilo un kurabiyesi söyledim bu nasıl bir lezzettir küçükken anneannemin yaptığı un kurabiyesini ezer geçer. Ellerinize sağlık jest yapıp fazla yollamışsınız 2. Siparişimde çok teşekkür ederim</t>
+  </si>
+  <si>
+    <t>Taptaze ve lezzetli, çok özlemişim. Notumu okudukları için de ayrıca teşekkür ederim</t>
+  </si>
+  <si>
+    <t>💯</t>
+  </si>
+  <si>
+    <t>Taze değil alıştığımız kıtırlık yok tatlı kurabiyedeTuzlu olan her zamanki gibi çok güzel</t>
+  </si>
+  <si>
+    <t>Hızlı teslimat için çok teşekkür ederiz</t>
+  </si>
+  <si>
+    <t>süre :(</t>
+  </si>
+  <si>
+    <t>Tuzlu kurabiyeleri hiç güzel değildi sert ve yağlıydı</t>
+  </si>
+  <si>
+    <t>Siyezli kurabiye mü kemmm mel ❤️</t>
+  </si>
+  <si>
+    <t>Acıbadem baya iyi</t>
+  </si>
+  <si>
+    <t>Acıbademde üstüne tanımam! Harika!</t>
   </si>
 </sst>
 </file>
@@ -880,10 +901,10 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -900,10 +921,10 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -917,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -937,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -957,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -977,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -997,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1017,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1037,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1057,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1077,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1097,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1117,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1137,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1157,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1177,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1197,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1217,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1237,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1257,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1303,25 +1324,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1329,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1337,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1345,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1353,244 +1374,256 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
         <v>123</v>
@@ -1598,379 +1631,519 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1">
-        <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1">
-        <v>31</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
         <v>130</v>
-      </c>
-      <c r="G40" t="s">
-        <v>136</v>
-      </c>
-      <c r="H40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1">
-        <v>3</v>
-      </c>
-      <c r="F43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1">
-        <v>4</v>
-      </c>
-      <c r="F44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" t="s">
-        <v>140</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1">
-        <v>5</v>
-      </c>
-      <c r="F45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1">
-        <v>6</v>
-      </c>
-      <c r="F46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" t="s">
-        <v>143</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G49" t="s">
-        <v>145</v>
-      </c>
-      <c r="H49">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" t="s">
+        <v>146</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" t="s">
+        <v>148</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>140</v>
+      </c>
+      <c r="G56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" t="s">
+        <v>151</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59" t="s">
+        <v>152</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
         <v>10</v>
       </c>
-      <c r="F50" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" t="s">
-        <v>146</v>
-      </c>
-      <c r="H50">
+      <c r="F60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" t="s">
+        <v>153</v>
+      </c>
+      <c r="H60">
         <v>5</v>
       </c>
     </row>
